--- a/기상API체크리스트.xlsx
+++ b/기상API체크리스트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xodm9\OneDrive\바탕 화면\dev\WeatherVue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quber\Desktop\Study\weather-vue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F130BA64-E7B4-49EE-95B2-9507309D806B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D97A2D-56D4-405D-BFB7-61028E535EA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1069D393-E97E-4CFA-8AFF-569F9A233692}"/>
+    <workbookView xWindow="-3552" yWindow="1548" windowWidth="20496" windowHeight="10656" xr2:uid="{1069D393-E97E-4CFA-8AFF-569F9A233692}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,105 +34,648 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>기상 정보 API 체크리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>API 제공 서비스명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>체크 항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>결과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>API 명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기상청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단기 3시간 간격 기온 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단기 3시간 간격 날씨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>일출시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>일몰시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당일 최고기온</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당일 최저기온</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>당일 미세먼지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>당일 오존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당일 습도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>당일 초미세먼지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>주간 날씨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>주간 최저기온</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>주간 최고기온</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>당일 자외선지수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당일 강수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당일 풍량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openweathermap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일 / 주간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재기온</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 하늘상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 습도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침 최저기온</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮 최고기온</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3시간 하늘상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3시간 풍향</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3시간 풍속</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 강수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3시간 기온</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3시간 및 당일 강수확률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3시간 및 당일 강수형태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://apis.data.go.kr/1360000/VilageFcstInfoService/getUltraSrtNcst?serviceKey=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;numOfRows=8&amp;pageNo=1&amp;dataType=json&amp;base_date=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;base_time=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${3}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;nx=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${4}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;ny=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${4}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://apis.data.go.kr/1360000/VilageFcstInfoService/getUltraSrtFcst?serviceKey=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;numOfRows=8&amp;pageNo=1&amp;dataType=json&amp;base_date=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;base_time=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${3}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;nx=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${4}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;ny=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${4}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RN1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파라메터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 인증키
+2. 조회 날짜
+3. 조회 시간
+4. 좌표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${3}의 경우 정시단위로 입력 (0900, 1200, 1600 등)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://apis.data.go.kr/1360000/VilageFcstInfoService/getVilageFcst?serviceKey=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;numOfRows=10&amp;pageNo=1&amp;dataType=json&amp;base_date=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;base_time=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${3}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;nx=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${4}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;ny=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${4}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간별로 다 나오기 때문에 가장 앞에 있는 항목을 적용해야함, 시간은 30분단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://apis.data.go.kr/1360000/VilageFcstInfoService/getVilageFcst?serviceKey=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;numOfRows=10&amp;pageNo=1&amp;dataType=json&amp;base_date=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;base_time=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${3}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;nx=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${4}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;ny=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${4}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>POP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VEC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간은 0200부터 3시간 단위로 입력
+최저기온, 최고기온은 특정 시간에만 표시되기 때문에 0200(당일 첫번째 발표)데이터 확인 필수
+당일이 아닌 다른날의 강수확률은 다음날 데이터에 나와있는 확률을 가져온 뒤 당일이 됐을 땐 3시간 단위의 강수확률을 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +716,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -189,12 +740,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -204,17 +755,171 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFA7A7A7"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
-        <color rgb="FFA7A7A7"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top style="thin">
-        <color rgb="FFA7A7A7"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFA7A7A7"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -223,36 +928,171 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,341 +1413,1097 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B938B0-E336-423D-A499-D7B70BBAC71A}">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
-    <col min="2" max="2" width="52.625" customWidth="1"/>
-    <col min="3" max="3" width="45.125" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="22.09765625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.296875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="38.3984375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="22" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" style="6"/>
+    <col min="7" max="7" width="15.09765625" style="6" customWidth="1"/>
+    <col min="8" max="16" width="8.796875" style="6"/>
+    <col min="17" max="17" width="18.09765625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="49.3984375" style="5" customWidth="1"/>
+    <col min="19" max="19" width="15.296875" style="6" customWidth="1"/>
+    <col min="20" max="21" width="8.796875" style="6"/>
+    <col min="22" max="22" width="53.59765625" style="6" customWidth="1"/>
+    <col min="23" max="16384" width="8.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-    </row>
-    <row r="2" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="35"/>
+    </row>
+    <row r="2" spans="1:22" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="R2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="32"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="16"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="19"/>
+    </row>
+    <row r="5" spans="1:22" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="45"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="41"/>
+      <c r="S6" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="45"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="41"/>
+      <c r="S7" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="45"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="41"/>
+      <c r="S8" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="45"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R9" s="41"/>
+      <c r="S9" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="48"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" s="41"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="51"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="41"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="51"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" s="41"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="51"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A13" s="7"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" s="41"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="51"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A14" s="7"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R14" s="41"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="51"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A15" s="7"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R15" s="41"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="51"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A16" s="7"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R16" s="42"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="54"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A17" s="7"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="45"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="45"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A19" s="7"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="45"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A20" s="7"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="45"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="45"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A22" s="7"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="45"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A23" s="7"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="45"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A24" s="7"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="45"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A25" s="7"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="45"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A26" s="7"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="45"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A27" s="7"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="45"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A28" s="7"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="45"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="45"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A30" s="7"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="45"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A31" s="7"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="45"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A32" s="7"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="45"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A33" s="7"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="45"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A34" s="7"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="45"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A35" s="7"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="45"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A36" s="7"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A19:A34"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A18"/>
+  <mergeCells count="71">
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="R5:R16"/>
+    <mergeCell ref="S9:V16"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="S3:V4"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="D28:P28"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D15:P15"/>
+    <mergeCell ref="D16:P16"/>
+    <mergeCell ref="D17:P17"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D10:P10"/>
+    <mergeCell ref="D11:P11"/>
+    <mergeCell ref="D12:P12"/>
+    <mergeCell ref="D13:P13"/>
+    <mergeCell ref="D14:P14"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="B5:B20"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B21:B33"/>
+    <mergeCell ref="D5:P5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="D3:Q4"/>
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="D9:P9"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
